--- a/data/trans_bre/P35_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P35_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,94</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-61,32%</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-84,44%</t>
+          <t>-32,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-75,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
         </is>
       </c>
     </row>
@@ -642,30 +668,40 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 2,42</t>
+          <t>-13,65; 4,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,77; -0,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 1,63</t>
+          <t>-18,21; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-7,29; 10,87</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-60,66%</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>-4,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-50,65%</t>
+          <t>6,39%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-25,55%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,02; 1,64</t>
+          <t>-10,42; 7,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 8,39</t>
+          <t>-6,1; 8,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,01; 2,3</t>
+          <t>-8,18; 8,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-9,06; 6,73</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 127,55</t>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,26</t>
+          <t>-7,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-11,8</t>
+          <t>-12,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-7,45</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-67,72%</t>
+          <t>-6,29</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-91,46%</t>
+          <t>-67,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-82,05%</t>
+          <t>-87,23%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-68,91%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-67,26%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,42; -1,03</t>
+          <t>-19,99; 0,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,91; -5,82</t>
+          <t>-22,64; -4,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,26; -2,96</t>
+          <t>-16,31; 0,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-92,94; -8,34</t>
+          <t>-16,28; 1,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -64,8</t>
+          <t>-94,17; 22,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-96,25; -34,35</t>
+          <t>-100,0; -35,22</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 241,19</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-22,54</t>
+          <t>-23,72</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-20,08</t>
+          <t>-19,14</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-21,86</t>
+          <t>-21,5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-75,89%</t>
+          <t>-13,25</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-76,08%</t>
+          <t>-72,85%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-79,2%</t>
+          <t>-71,27%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-73,36%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-61,47%</t>
         </is>
       </c>
     </row>
@@ -882,32 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-31,65; -13,65</t>
+          <t>-36,05; -12,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,07; -11,64</t>
+          <t>-30,64; -8,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,58; -14,19</t>
+          <t>-32,12; -10,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-87,64; -56,42</t>
+          <t>-23,45; -3,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-88,2; -55,08</t>
+          <t>-87,58; -44,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-90,2; -60,22</t>
+          <t>-87,74; -37,29</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-88,18; -46,14</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-84,04; -18,11</t>
         </is>
       </c>
     </row>
@@ -924,32 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-23,2</t>
+          <t>-24,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-23,82</t>
+          <t>-17,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-27,8</t>
+          <t>-19,55</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-66,12%</t>
+          <t>-18,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-70,78%</t>
+          <t>-68,14%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-74,09%</t>
+          <t>-56,33%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-55,64%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-68,47%</t>
         </is>
       </c>
     </row>
@@ -962,32 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-36,17; -12,14</t>
+          <t>-40,52; -7,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,32; -13,66</t>
+          <t>-33,14; -2,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-38,41; -16,77</t>
+          <t>-34,5; -4,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-83,44; -38,17</t>
+          <t>-32,71; -6,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-84,7; -47,28</t>
+          <t>-88,61; -21,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-86,34; -52,85</t>
+          <t>-82,59; -8,67</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-81,49; -10,46</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-89,27; -18,78</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-21,41</t>
+          <t>-15,47</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-20,15</t>
+          <t>-15,01</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-20,26</t>
+          <t>-19,11</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-75,7%</t>
+          <t>-22,83</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-76,46%</t>
+          <t>-59,24%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-77,4%</t>
+          <t>-59,98%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-72,15%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-68,67%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,72; -10,73</t>
+          <t>-32,84; 1,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-31,4; -10,1</t>
+          <t>-32,42; 0,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-31,22; -10,26</t>
+          <t>-35,26; -3,59</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-90,67; -47,83</t>
+          <t>-40,79; -5,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-90,41; -50,48</t>
+          <t>-88,52; 15,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-91,49; -51,63</t>
+          <t>-87,79; 13,21</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-92,41; -8,04</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-89,26; -16,01</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-13,61</t>
+          <t>-13,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-13,38</t>
+          <t>-11,64</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-12,94</t>
+          <t>-11,66</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-71,06%</t>
+          <t>-9,56</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-74,2%</t>
+          <t>-66,53%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-74,65%</t>
+          <t>-67,85%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-66,76%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-60,11%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1268,61 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,64; -9,94</t>
+          <t>-19,14; -7,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-16,81; -9,65</t>
+          <t>-16,74; -6,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-16,57; -9,51</t>
+          <t>-16,84; -6,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-80,33; -59,87</t>
+          <t>-14,79; -4,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-82,12; -60,68</t>
+          <t>-78,99; -47,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-82,83; -61,95</t>
+          <t>-80,73; -47,27</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-79,28; -46,29</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-75,8; -35,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>

--- a/data/trans_bre/P35_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P35_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,161 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-4,38</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,03</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-32,06%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,94%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.051520968287985</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-7.219149701764595</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.430849950083068</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.4919793035369995</v>
+      </c>
+      <c r="H4" s="6" t="inlineStr"/>
+      <c r="I4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.2541061444930114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-13,65; 4,69</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,21; 0,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,29; 10,87</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.39444826615244</v>
+      </c>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="n">
+        <v>-27.25211011863773</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-18.24594775125125</v>
+      </c>
+      <c r="G5" s="6" t="inlineStr"/>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.120516326830217</v>
+      </c>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>8.622754636339991</v>
+      </c>
+      <c r="G6" s="6" t="inlineStr"/>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,25</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,26</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,34</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-4,45%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>6,39%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,25%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-25,55%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-10,42; 7,83</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,1; 8,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,18; 8,34</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-9,06; 6,73</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.0118179031826246</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.7735463882829863</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.5525692420026457</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.979071344490543</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.002538287516281061</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1930013471255419</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1051001660318471</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.3589140686443898</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-7,79</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-12,27</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,78</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-6,29</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-67,51%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-87,23%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-68,91%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-67,26%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.492708711382003</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.031441508351373</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-9.25006327036682</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-10.19530515596578</v>
+      </c>
+      <c r="G8" s="6" t="inlineStr"/>
+      <c r="H8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-19,99; 0,28</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-22,64; -4,27</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-16,31; 0,69</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-16,28; 1,53</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-94,17; 22,0</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -35,22</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 241,19</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.121780890403278</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>5.88324266293309</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.483948524737864</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>5.524501106000034</v>
+      </c>
+      <c r="G9" s="6" t="inlineStr"/>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,299 +789,195 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-23,72</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-19,14</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-21,5</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-13,25</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-72,85%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-71,27%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-73,36%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-61,47%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-8.107355028135142</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-13.0718590371853</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.900766190025923</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-6.475104768059693</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.7017035355103637</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.8878815699090384</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.7153417689157161</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.7115363793253762</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-36,05; -12,13</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-30,64; -8,62</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-32,12; -10,34</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-23,45; -3,18</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-87,58; -44,32</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-87,74; -37,29</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-88,18; -46,14</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-84,04; -18,11</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-19.39300171077292</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-25.14829995976074</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-16.62333529629645</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-16.636475140799</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.945645116706092</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.2180345299972878</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>-4.817362247864125</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.4292469801228523</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.8722165691337275</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2344332572212762</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>-0.342928124528887</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>1.601418433459467</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-24,41</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-17,9</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-19,55</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-18,91</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-68,14%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-56,33%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-55,64%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-68,47%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-40,52; -7,69</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-33,14; -2,81</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-34,5; -4,63</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-32,71; -6,01</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-88,61; -21,75</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-82,59; -8,67</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-81,49; -10,46</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-89,27; -18,78</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-24.89230610196121</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-19.5507855173903</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-22.77061902524962</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-13.38967219402496</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.7495537418847646</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.7175769758708592</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.7486131090160455</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.6116154447074491</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-15,47</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-15,01</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-19,11</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-22,83</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-59,24%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-59,98%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-72,15%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-68,67%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-37.7963969658324</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-30.7509621434791</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-34.37540904501907</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-23.97530225152877</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.8847203903465605</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.8802936352038485</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.8866574418591401</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.8333172757006433</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-32,84; 1,17</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-32,42; 0,65</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-35,26; -3,59</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-40,79; -5,52</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-88,52; 15,37</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-87,79; 13,21</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-92,41; -8,04</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-89,26; -16,01</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-13.09647662770232</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-8.506921301460412</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-11.45506730817361</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>-3.013586307046434</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>-0.4743293051563339</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>-0.3842836440103393</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>-0.4914327159844251</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.1486063062818014</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1218,97 +985,297 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-13,25</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-11,64</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-11,66</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-9,56</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-66,53%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-67,85%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>-66,76%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-60,11%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-24.82006382756678</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-18.77752258297734</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-20.20991329357379</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>-18.90534437651248</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>-0.6947774215013209</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>-0.5836166703817329</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>-0.5753686538258042</v>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>-0.6771152349429237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-19,14; -7,88</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-16,74; -6,81</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-16,84; -6,81</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-14,79; -4,8</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-78,99; -47,34</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-80,73; -47,27</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-79,28; -46,29</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-75,8; -35,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-41.38917756118458</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-34.0482875216069</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-35.16488961797196</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>-32.34568994035956</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>-0.8935065612902519</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>-0.8365587776732537</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-0.8262616752272131</v>
+      </c>
+      <c r="J17" s="6" t="n">
+        <v>-0.8966745751063135</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>-8.532677334540571</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>-4.001714826698837</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>-4.953177040400384</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>-5.847256575402705</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>-0.2513032579394811</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>-0.1341245580552022</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>-0.131679967582265</v>
+      </c>
+      <c r="J18" s="6" t="n">
+        <v>-0.1942226753168727</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>-17.27737278855626</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>-15.22907481584941</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>-19.70295056821844</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>-23.55675053607806</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>-0.6203998566547635</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>-0.6196145923870028</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>-0.7472907611838513</v>
+      </c>
+      <c r="J19" s="6" t="n">
+        <v>-0.7233153402850393</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-36.9683158326371</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-32.27142312892833</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>-36.22355990205146</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>-40.53998871121003</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>-0.9076609394327592</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>-0.8857896762181617</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>-0.9334961934922211</v>
+      </c>
+      <c r="J20" s="6" t="n">
+        <v>-0.9096047225146514</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>-0.9073831801637365</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>-0.1654501946982126</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>-4.744966464110489</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>-6.946816776003764</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.06595349227411965</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.08121243083092131</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>-0.197917951826877</v>
+      </c>
+      <c r="J21" s="6" t="n">
+        <v>-0.2869037657234338</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-13.77268383565407</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-12.22795654053419</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-12.70644855887941</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>-9.969825957469235</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>-0.6893699425935237</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>-0.7006127626967427</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>-0.7007785287998043</v>
+      </c>
+      <c r="J22" s="6" t="n">
+        <v>-0.6223341553041599</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-19.89944580112702</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-17.34594629599383</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-18.40330263099721</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>-15.2217491887052</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>-0.8031611181228864</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>-0.8179338721166087</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>-0.8130071557746419</v>
+      </c>
+      <c r="J23" s="6" t="n">
+        <v>-0.769941391795213</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>-8.596070866626432</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>-7.363516626346376</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>-7.855645468691224</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>-4.956247448464091</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>-0.5159793910632441</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>-0.5083590043155468</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>-0.5105798297904153</v>
+      </c>
+      <c r="J24" s="6" t="n">
+        <v>-0.3867412500899672</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1316,16 +1283,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
